--- a/리디북스 분석 및 일정/리디북스 백엔드 일정.xlsx
+++ b/리디북스 분석 및 일정/리디북스 백엔드 일정.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ekdh0\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ekdh0\OneDrive\Documents\New_RidiBooks\리디북스 분석 및 일정\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FE4D6F-98B3-4782-BB81-629000A15192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DBD2AA-B962-455D-8DFF-082558EF4E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{41F67E13-01DB-4599-BB6B-D8730AA83F4D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="수정된 일정" sheetId="1" r:id="rId1"/>
+    <sheet name="인터페이스" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,11 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
-  <si>
-    <t>리디북스 페이지 만들기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>대분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,10 +116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>비밀번호 찾기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>알림 목록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -148,16 +140,84 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>나머지 인터페이스 추가시 같이 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기능 구현 미숙으로 인한 연장</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>로그인/회원가입 일정 연장
-1.6까지 연장</t>
+    <t>6주차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7주차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리디북스 사이트 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원래 일정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정된 일정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.30~1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.30~1.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정 수정 이유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정 항목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 / 회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.30~1.6,
+1.3~1.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.30~1.23,
+1.3~1.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 과정에서 오류 발생 수정
+(에이 잭스 및 자바스크립트 오류)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 재설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 / 회원가입
+아이디확인/ 이메일확인
+아이디찾기/ 비밀번호 재설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전 계획의 지연으로 인한 늦게 시작 및 기능구현 미숙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나머지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~2.6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -200,7 +260,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -328,13 +388,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -353,9 +465,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -365,8 +474,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -392,14 +501,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -715,71 +866,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{006835AA-F79B-41A4-B363-918C6C9CC55A}">
-  <dimension ref="B1:N26"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="28.375" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
     <col min="4" max="4" width="16.125" customWidth="1"/>
     <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+    <row r="1" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B2" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="20"/>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="12"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="E3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15" t="s">
+      <c r="H3" s="14"/>
+      <c r="I3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15" t="s">
+      <c r="J3" s="14"/>
+      <c r="K3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15" t="s">
+      <c r="L3" s="14"/>
+      <c r="M3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="17"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="13"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" s="16"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B4" s="12"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
       <c r="E4" s="1">
         <v>12.2</v>
       </c>
@@ -807,14 +972,26 @@
       <c r="M4" s="2">
         <v>1.17</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="2">
         <v>1.21</v>
       </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="13"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
+      <c r="O4" s="23">
+        <v>1.24</v>
+      </c>
+      <c r="P4" s="23">
+        <v>1.27</v>
+      </c>
+      <c r="Q4" s="23">
+        <v>1.31</v>
+      </c>
+      <c r="R4" s="25">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B5" s="12"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="2">
         <v>12.23</v>
       </c>
@@ -842,19 +1019,31 @@
       <c r="M5" s="1">
         <v>1.2</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="2">
         <v>1.23</v>
       </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="18" t="s">
-        <v>16</v>
+      <c r="O5" s="23">
+        <v>1.26</v>
+      </c>
+      <c r="P5" s="23">
+        <v>1.3</v>
+      </c>
+      <c r="Q5" s="23">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="R5" s="25">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B6" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -865,15 +1054,19 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="7"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="13"/>
-      <c r="C7" s="15" t="s">
-        <v>10</v>
+      <c r="N6" s="4"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="7"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B7" s="12"/>
+      <c r="C7" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -884,13 +1077,17 @@
       <c r="K7" s="3"/>
       <c r="L7" s="5"/>
       <c r="M7" s="3"/>
-      <c r="N7" s="8"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="13"/>
-      <c r="C8" s="15"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="7"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B8" s="12"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -901,13 +1098,17 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="8"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="13"/>
-      <c r="C9" s="15"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="7"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B9" s="12"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -918,13 +1119,17 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="8"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="13"/>
-      <c r="C10" s="15"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="7"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B10" s="12"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -935,20 +1140,24 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="4"/>
-      <c r="N10" s="7"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>10</v>
+      <c r="N10" s="4"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="7"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -956,16 +1165,20 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-      <c r="N11" s="8"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="13"/>
-      <c r="C12" s="15"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="7"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B12" s="12"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
+        <v>17</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -973,211 +1186,318 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
-      <c r="N12" s="8"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="13"/>
-      <c r="C13" s="15"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="7"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B13" s="12"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
+        <v>18</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="8"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="13"/>
-      <c r="C14" s="15"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="6"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B14" s="12"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
+        <v>19</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="8"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="13"/>
-      <c r="C15" s="15"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="6"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B15" s="12"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
+        <v>20</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="8"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="13"/>
-      <c r="C16" s="15"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="6"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B16" s="12"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
+        <v>41</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="8"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="13"/>
-      <c r="C17" s="15"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="6"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B17" s="12"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
+        <v>21</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
       <c r="M17" s="3"/>
-      <c r="N17" s="8"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="13"/>
-      <c r="C18" s="15"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="6"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B18" s="12"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
+        <v>22</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
       <c r="M18" s="3"/>
-      <c r="N18" s="8"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="13"/>
-      <c r="C19" s="15"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="6"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B19" s="12"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
+        <v>23</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-      <c r="N19" s="8"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="13"/>
-      <c r="C20" s="15"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="6"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B20" s="12"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
+        <v>25</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B21" s="13"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="6"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B21" s="12"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
+        <v>24</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-    </row>
-    <row r="22" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="14"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="E24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="E25" s="19">
-        <v>44564</v>
-      </c>
-      <c r="F25" s="21" t="s">
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="6"/>
+    </row>
+    <row r="22" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="13"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="22"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E25" s="9"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+    </row>
+    <row r="26" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
+      <c r="C27" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="11"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="16"/>
+    </row>
+    <row r="29" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="16"/>
+    </row>
+    <row r="30" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="I25:N25"/>
-    <mergeCell ref="F25:H26"/>
-    <mergeCell ref="B2:N2"/>
+  <mergeCells count="20">
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="B2:R2"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D27:H27"/>
     <mergeCell ref="B11:B22"/>
     <mergeCell ref="C11:C20"/>
     <mergeCell ref="E11:F22"/>
@@ -1196,4 +1516,17 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE7F61F-929D-41AC-B706-5109ABA221DC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/리디북스 분석 및 일정/리디북스 백엔드 일정.xlsx
+++ b/리디북스 분석 및 일정/리디북스 백엔드 일정.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ekdh0\OneDrive\Documents\New_RidiBooks\리디북스 분석 및 일정\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DBD2AA-B962-455D-8DFF-082558EF4E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F0920C-667D-41A4-975B-3AF56CB41939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{41F67E13-01DB-4599-BB6B-D8730AA83F4D}"/>
+    <workbookView xWindow="29160" yWindow="195" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{41F67E13-01DB-4599-BB6B-D8730AA83F4D}"/>
   </bookViews>
   <sheets>
     <sheet name="수정된 일정" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
   <si>
     <t>대분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,6 +218,70 @@
   </si>
   <si>
     <t>~2.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">위시리스트 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 되어있는 상태가 아닐때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위시리스트에 책을 못넣었을때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위시리스트에서 책을 못 뺏을때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위시리스트가 아무것도 없을 때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인이 되어있는 상태임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인이 안되어있는 상태임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>active</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>booknum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isLogin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ajax에서 전달해줘야하는것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 사용여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in , out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>책 고유 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동작(넣기,빼기)을 완료 했을때</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -446,7 +510,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -477,6 +541,66 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -489,67 +613,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -868,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{006835AA-F79B-41A4-B363-918C6C9CC55A}">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -882,69 +949,69 @@
   <sheetData>
     <row r="1" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="20"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="28"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14" t="s">
+      <c r="F3" s="24"/>
+      <c r="G3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14" t="s">
+      <c r="H3" s="24"/>
+      <c r="I3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14" t="s">
+      <c r="J3" s="24"/>
+      <c r="K3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14" t="s">
+      <c r="L3" s="24"/>
+      <c r="M3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14" t="s">
+      <c r="N3" s="24"/>
+      <c r="O3" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14" t="s">
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="R3" s="16"/>
+      <c r="R3" s="25"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="12"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
       <c r="E4" s="1">
         <v>12.2</v>
       </c>
@@ -975,23 +1042,23 @@
       <c r="N4" s="2">
         <v>1.21</v>
       </c>
-      <c r="O4" s="23">
+      <c r="O4" s="12">
         <v>1.24</v>
       </c>
-      <c r="P4" s="23">
+      <c r="P4" s="12">
         <v>1.27</v>
       </c>
-      <c r="Q4" s="23">
+      <c r="Q4" s="12">
         <v>1.31</v>
       </c>
-      <c r="R4" s="25">
+      <c r="R4" s="13">
         <v>2.4</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B5" s="12"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
       <c r="E5" s="2">
         <v>12.23</v>
       </c>
@@ -1022,21 +1089,21 @@
       <c r="N5" s="2">
         <v>1.23</v>
       </c>
-      <c r="O5" s="23">
+      <c r="O5" s="12">
         <v>1.26</v>
       </c>
-      <c r="P5" s="23">
+      <c r="P5" s="12">
         <v>1.3</v>
       </c>
-      <c r="Q5" s="23">
+      <c r="Q5" s="12">
         <v>2.2999999999999998</v>
       </c>
-      <c r="R5" s="25">
+      <c r="R5" s="13">
         <v>2.6</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="34" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1061,8 +1128,8 @@
       <c r="R6" s="7"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B7" s="12"/>
-      <c r="C7" s="14" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="24" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -1084,8 +1151,8 @@
       <c r="R7" s="7"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="12"/>
-      <c r="C8" s="14"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="3" t="s">
         <v>12</v>
       </c>
@@ -1105,8 +1172,8 @@
       <c r="R8" s="7"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="12"/>
-      <c r="C9" s="14"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="3" t="s">
         <v>13</v>
       </c>
@@ -1126,8 +1193,8 @@
       <c r="R9" s="7"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B10" s="12"/>
-      <c r="C10" s="14"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="3" t="s">
         <v>14</v>
       </c>
@@ -1147,17 +1214,17 @@
       <c r="R10" s="7"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="24" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -1172,13 +1239,13 @@
       <c r="R11" s="7"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
-      <c r="C12" s="14"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -1193,13 +1260,13 @@
       <c r="R12" s="7"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="12"/>
-      <c r="C13" s="14"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="4"/>
@@ -1214,13 +1281,13 @@
       <c r="R13" s="6"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B14" s="12"/>
-      <c r="C14" s="14"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="24"/>
       <c r="D14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="4"/>
@@ -1235,13 +1302,13 @@
       <c r="R14" s="6"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="12"/>
-      <c r="C15" s="14"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="4"/>
@@ -1256,13 +1323,13 @@
       <c r="R15" s="6"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="12"/>
-      <c r="C16" s="14"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="4"/>
@@ -1277,13 +1344,13 @@
       <c r="R16" s="6"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B17" s="12"/>
-      <c r="C17" s="14"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -1298,13 +1365,13 @@
       <c r="R17" s="6"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
-      <c r="C18" s="14"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="24"/>
       <c r="D18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -1319,20 +1386,19 @@
       <c r="R18" s="6"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B19" s="12"/>
-      <c r="C19" s="14"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="24"/>
       <c r="D19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
@@ -1340,13 +1406,13 @@
       <c r="R19" s="6"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B20" s="12"/>
-      <c r="C20" s="14"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="24"/>
       <c r="D20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -1361,13 +1427,13 @@
       <c r="R20" s="6"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B21" s="12"/>
+      <c r="B21" s="32"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -1382,13 +1448,13 @@
       <c r="R21" s="6"/>
     </row>
     <row r="22" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="13"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -1397,48 +1463,48 @@
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="22"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="11"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E25" s="9"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
     </row>
     <row r="26" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="11"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="31"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="19" t="s">
         <v>37</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -1447,50 +1513,54 @@
       <c r="C28" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="16"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="25"/>
     </row>
     <row r="29" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="16"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="25"/>
     </row>
     <row r="30" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="21" t="s">
         <v>44</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="34"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
     <mergeCell ref="D30:H30"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="Q3:R3"/>
@@ -1507,10 +1577,6 @@
     <mergeCell ref="C7:C10"/>
     <mergeCell ref="B6:B10"/>
     <mergeCell ref="C3:C5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1520,12 +1586,124 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE7F61F-929D-41AC-B706-5109ABA221DC}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="8" max="8" width="18.25" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G1" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="35"/>
+      <c r="I1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2">
+        <v>404</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="G2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>401</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="G3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>402</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>205</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>200</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8">
+        <v>200</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>400</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
